--- a/data/InaugurationInfo.xlsx
+++ b/data/InaugurationInfo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianzheng/Dropbox/Tian_Teaching/G5243-ADS/Spring2017/Tutorials/speeches/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linhan/GitHub/fall2017-project1-budingtanke/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="3420" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
   <si>
     <t>President</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>Donald J. Trump</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>Term</t>
@@ -13293,8 +13290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13309,13 +13306,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -13326,13 +13323,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2">
         <v>1431</v>
@@ -13343,13 +13340,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2">
         <v>135</v>
@@ -13360,13 +13357,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2">
         <v>2321</v>
@@ -13377,13 +13374,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2">
         <v>1730</v>
@@ -13394,13 +13391,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2">
         <v>2166</v>
@@ -13411,13 +13408,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
         <v>1177</v>
@@ -13428,13 +13425,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2">
         <v>1211</v>
@@ -13445,13 +13442,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2">
         <v>3375</v>
@@ -13462,13 +13459,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2">
         <v>4472</v>
@@ -13479,13 +13476,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2">
         <v>2915</v>
@@ -13496,13 +13493,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2">
         <v>1128</v>
@@ -13513,13 +13510,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2">
         <v>1176</v>
@@ -13530,13 +13527,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2">
         <v>3843</v>
@@ -13547,13 +13544,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2">
         <v>8460</v>
@@ -13564,13 +13561,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2">
         <v>4809</v>
@@ -13581,13 +13578,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2">
         <v>1090</v>
@@ -13598,13 +13595,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2">
         <v>3336</v>
@@ -13615,13 +13612,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2">
         <v>2831</v>
@@ -13632,13 +13629,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2">
         <v>3637</v>
@@ -13649,13 +13646,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2">
         <v>700</v>
@@ -13666,13 +13663,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2">
         <v>1127</v>
@@ -13683,13 +13680,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2">
         <v>1339</v>
@@ -13700,13 +13697,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2">
         <v>2486</v>
@@ -13717,13 +13714,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2">
         <v>2979</v>
@@ -13734,13 +13731,13 @@
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2">
         <v>1686</v>
@@ -13751,13 +13748,13 @@
         <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2">
         <v>4392</v>
@@ -13768,13 +13765,13 @@
         <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2">
         <v>2015</v>
@@ -13785,13 +13782,13 @@
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2">
         <v>3968</v>
@@ -13802,13 +13799,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2">
         <v>2218</v>
@@ -13819,13 +13816,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2">
         <v>984</v>
@@ -13836,13 +13833,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2">
         <v>5434</v>
@@ -13853,13 +13850,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2">
         <v>1704</v>
@@ -13870,13 +13867,13 @@
         <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2">
         <v>1526</v>
@@ -13887,13 +13884,13 @@
         <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2">
         <v>3329</v>
@@ -13904,13 +13901,13 @@
         <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2">
         <v>4055</v>
@@ -13921,13 +13918,13 @@
         <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2">
         <v>3672</v>
@@ -13938,13 +13935,13 @@
         <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2">
         <v>1880</v>
@@ -13955,13 +13952,13 @@
         <v>29</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2">
         <v>1808</v>
@@ -13972,13 +13969,13 @@
         <v>29</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2">
         <v>1359</v>
@@ -13989,13 +13986,13 @@
         <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="1">
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2">
         <v>559</v>
@@ -14006,13 +14003,13 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2">
         <v>2273</v>
@@ -14023,13 +14020,13 @@
         <v>31</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2">
         <v>2459</v>
@@ -14040,13 +14037,13 @@
         <v>31</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2">
         <v>1658</v>
@@ -14057,13 +14054,13 @@
         <v>32</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E45" s="2">
         <v>1366</v>
@@ -14074,13 +14071,13 @@
         <v>33</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E46" s="2">
         <v>1507</v>
@@ -14091,13 +14088,13 @@
         <v>34</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E47" s="2">
         <v>2128</v>
@@ -14108,13 +14105,13 @@
         <v>34</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E48" s="2">
         <v>1803</v>
@@ -14125,13 +14122,13 @@
         <v>35</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E49" s="2">
         <v>1229</v>
@@ -14142,13 +14139,13 @@
         <v>36</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E50" s="2">
         <v>2427</v>
@@ -14159,13 +14156,13 @@
         <v>36</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E51" s="2">
         <v>2561</v>
@@ -14176,13 +14173,13 @@
         <v>37</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E52" s="2">
         <v>2320</v>
@@ -14193,13 +14190,13 @@
         <v>38</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E53" s="2">
         <v>1598</v>
@@ -14210,13 +14207,13 @@
         <v>38</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E54" s="2">
         <v>2155</v>
@@ -14227,13 +14224,13 @@
         <v>39</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E55" s="2">
         <v>1592</v>
@@ -14244,13 +14241,13 @@
         <v>39</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E56" s="2">
         <v>2071</v>
@@ -14261,13 +14258,13 @@
         <v>40</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E57" s="2">
         <v>2395</v>
@@ -14278,13 +14275,13 @@
         <v>40</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E58" s="2">
         <v>2096</v>
@@ -14295,16 +14292,16 @@
         <v>41</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1455</v>
       </c>
     </row>
   </sheetData>
